--- a/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>18,26; 24,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,79; 22,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,2; 23,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>11,41; 17,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>20,33; 25,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>21,33; 26,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>18,99; 25,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,05; 16,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,19; 24,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>19,77; 23,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>18,83; 23,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>12,62; 16,19</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>35,02; 40,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,97; 36,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,12; 32,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>18,19; 22,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>36,2; 41,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>31,05; 35,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>26,88; 31,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>15,53; 20,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>36,3; 39,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,27; 35,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>28,06; 31,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>17,63; 21,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>27,05; 36,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>27,33; 36,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>21,55; 29,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,54; 19,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>27,17; 36,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>21,62; 30,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>18,5; 25,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,66; 20,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>28,61; 35,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>26,07; 32,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>20,95; 26,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>15,45; 19,64</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>30,02; 33,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>28,38; 31,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>25,93; 29,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,09; 20,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,17; 33,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,61; 30,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>24,58; 27,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,76; 18,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>30,61; 33,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>28,38; 30,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,85; 28,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>16,93; 19,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 17,67</t>
+          <t>11,78; 18,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,05; 16,27</t>
+          <t>12,47; 16,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,19</t>
+          <t>13,04; 16,65</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,58%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,78</t>
+          <t>12,73; 22,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,38</t>
+          <t>13,58; 22,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 21,09</t>
+          <t>15,19; 21,36</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,59%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,89</t>
+          <t>13,79; 20,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 20,81</t>
+          <t>15,74; 20,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,64</t>
+          <t>15,62; 19,91</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 20,49</t>
+          <t>14,03; 20,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 18,88</t>
+          <t>14,44; 19,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 19,08</t>
+          <t>15,29; 19,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,26; 24,48</t>
+          <t>18,44; 24,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 22,44</t>
+          <t>16,59; 22,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,81</t>
+          <t>16,48; 23,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,12</t>
+          <t>11,92; 18,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,61</t>
+          <t>20,0; 25,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,33; 26,36</t>
+          <t>21,4; 26,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,67</t>
+          <t>18,75; 25,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,85</t>
+          <t>12,5; 16,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 24,16</t>
+          <t>20,19; 24,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 23,87</t>
+          <t>20,14; 23,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 23,69</t>
+          <t>19,1; 24,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 16,65</t>
+          <t>13,05; 16,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,02; 40,2</t>
+          <t>34,8; 40,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,97; 36,75</t>
+          <t>32,34; 37,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,12; 32,51</t>
+          <t>28,23; 32,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 22,19</t>
+          <t>12,66; 22,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,2; 41,36</t>
+          <t>36,32; 41,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 35,97</t>
+          <t>31,12; 35,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 31,22</t>
+          <t>26,9; 31,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 22,17</t>
+          <t>13,38; 22,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,3; 39,92</t>
+          <t>36,37; 40,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,27; 35,63</t>
+          <t>32,39; 35,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 31,25</t>
+          <t>28,06; 31,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 21,36</t>
+          <t>14,81; 21,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,05; 36,49</t>
+          <t>27,78; 36,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,33; 36,73</t>
+          <t>27,56; 37,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 29,43</t>
+          <t>21,16; 29,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 20,29</t>
+          <t>13,7; 20,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,17; 36,49</t>
+          <t>27,38; 36,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 30,84</t>
+          <t>22,19; 30,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,42</t>
+          <t>18,3; 25,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 20,9</t>
+          <t>15,96; 21,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,61; 35,07</t>
+          <t>28,56; 35,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,07; 32,6</t>
+          <t>26,32; 32,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,24</t>
+          <t>20,77; 26,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 19,91</t>
+          <t>15,5; 19,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,98</t>
+          <t>30,08; 34,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 31,9</t>
+          <t>28,34; 31,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 29,47</t>
+          <t>25,8; 29,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 20,3</t>
+          <t>13,66; 20,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 33,89</t>
+          <t>30,12; 33,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 30,85</t>
+          <t>27,42; 30,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 27,84</t>
+          <t>24,41; 27,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 19,88</t>
+          <t>14,31; 20,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,61; 33,25</t>
+          <t>30,72; 33,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 30,76</t>
+          <t>28,33; 30,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,85; 28,17</t>
+          <t>25,65; 28,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 19,3</t>
+          <t>15,46; 19,4</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por un empaste</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>146744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>150967</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91513</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71855</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>218277</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>267249</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>142605</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>104901</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>365021</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>418215</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>234118</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>176756</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>126944; 171044</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>129076; 173246</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75363; 108562</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57629; 87397</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>191758; 245324</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>241465; 299045</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>119787; 163792</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>90198; 122150</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>332507; 401227</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>383989; 455471</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>209407; 266180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>157248; 200022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>494928</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>581158</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>514516</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>531998</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>532442</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>494867</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>399063</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1026926</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1113599</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1009383</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>822579</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>457407; 531189</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>545422; 625489</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>478885; 552452</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>282457; 491711</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>498746; 568307</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>494887; 569760</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>459722; 536603</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>293891; 483672</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>977621; 1075721</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1061305; 1169035</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>955569; 1070139</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>655542; 943621</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>143267</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>142443</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>126599</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106157</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>128530</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>111027</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>111036</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>119566</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>271797</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>253469</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>237635</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>225723</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>125246; 164205</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>121853; 165134</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>105618; 148223</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86514; 127618</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>111916; 150261</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>93595; 130538</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>93023; 129195</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>103978; 137724</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>245507; 302551</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>227364; 283029</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>209240; 266876</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>198807; 252999</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>784940</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>874567</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>732628</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>601529</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>878804</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>910717</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>748508</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>623530</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1663744</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1785284</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1481136</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1225059</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>738000; 835283</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>823753; 924825</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>684457; 776562</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>456793; 677103</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>825485; 928483</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>861144; 964626</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>697129; 792775</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>510788; 715269</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1595910; 1728616</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1713472; 1861730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1413050; 1544474</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1069274; 1341860</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>